--- a/input_data/Данные.xlsx
+++ b/input_data/Данные.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vladimir\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\PyCharm\pythonProject\TestTask\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5C4054-E3C7-4616-84A9-984376452A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E462DB-BEBE-49A2-9E5D-709D45C55349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7DCA61A9-0360-40E8-A22D-CB5F0BB7458B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16848" xr2:uid="{7DCA61A9-0360-40E8-A22D-CB5F0BB7458B}"/>
   </bookViews>
   <sheets>
     <sheet name="Договоры участников" sheetId="1" r:id="rId1"/>
@@ -18,26 +18,17 @@
     <sheet name="Параметры расчета" sheetId="3" r:id="rId3"/>
     <sheet name="Результат" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Номер договора</t>
   </si>
@@ -427,21 +418,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA19D607-406C-4C40-B1B1-53235B3AAB85}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -469,7 +460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -480,6 +471,20 @@
         <v>31810</v>
       </c>
       <c r="D3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>34700</v>
+      </c>
+      <c r="D4">
         <v>65</v>
       </c>
     </row>
@@ -490,19 +495,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45247E60-371D-4E54-BECE-74D95DA6350A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -510,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -518,12 +523,20 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3">
         <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4">
+        <v>70000</v>
       </c>
     </row>
   </sheetData>
@@ -536,16 +549,16 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -553,7 +566,7 @@
         <v>45322</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -561,7 +574,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -582,14 +595,14 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
